--- a/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/UMap/stress_results_UMap.xlsx
+++ b/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/UMap/stress_results_UMap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E255"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6302,6 +6302,834 @@
         <v>7.788196967563801</v>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:44</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>10</v>
+      </c>
+      <c r="E256" t="n">
+        <v>5.291274608099837</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:44</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>10</v>
+      </c>
+      <c r="E257" t="n">
+        <v>5.695187342672982</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:48</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>10</v>
+      </c>
+      <c r="E258" t="n">
+        <v>5.811032671043269</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:50</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>10</v>
+      </c>
+      <c r="E259" t="n">
+        <v>5.542625778243734</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:54</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>10</v>
+      </c>
+      <c r="E260" t="n">
+        <v>5.677348860833649</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:54</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>10</v>
+      </c>
+      <c r="E261" t="n">
+        <v>5.416487599006271</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:55</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>10</v>
+      </c>
+      <c r="E262" t="n">
+        <v>5.498188539206063</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:55</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>20</v>
+      </c>
+      <c r="E263" t="n">
+        <v>5.466001344594968</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:55</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>20</v>
+      </c>
+      <c r="E264" t="n">
+        <v>5.431023151521125</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:55</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>10</v>
+      </c>
+      <c r="E265" t="n">
+        <v>5.376840756031892</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:55</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>40</v>
+      </c>
+      <c r="E266" t="n">
+        <v>5.676024509278975</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:55</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>40</v>
+      </c>
+      <c r="E267" t="n">
+        <v>5.432202026289972</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:56</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>30</v>
+      </c>
+      <c r="E268" t="n">
+        <v>5.261309785235558</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:56</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>40</v>
+      </c>
+      <c r="E269" t="n">
+        <v>5.167869402747034</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:56</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>40</v>
+      </c>
+      <c r="E270" t="n">
+        <v>5.318752964990559</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:56</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>30</v>
+      </c>
+      <c r="E271" t="n">
+        <v>5.737660878335407</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:56</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>20</v>
+      </c>
+      <c r="E272" t="n">
+        <v>5.58983429363817</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:56</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>20</v>
+      </c>
+      <c r="E273" t="n">
+        <v>5.713483319319765</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:57</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>40</v>
+      </c>
+      <c r="E274" t="n">
+        <v>5.537689107541402</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:57</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>30</v>
+      </c>
+      <c r="E275" t="n">
+        <v>5.490376847492876</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:57</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>30</v>
+      </c>
+      <c r="E276" t="n">
+        <v>5.228675362844228</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:57</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>30</v>
+      </c>
+      <c r="E277" t="n">
+        <v>5.293886123450595</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:57</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>20</v>
+      </c>
+      <c r="E278" t="n">
+        <v>5.213577271181734</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:57</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>20</v>
+      </c>
+      <c r="E279" t="n">
+        <v>5.467478110137145</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:57</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>10</v>
+      </c>
+      <c r="E280" t="n">
+        <v>5.410521191842305</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:57</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>20</v>
+      </c>
+      <c r="E281" t="n">
+        <v>5.311152804181749</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:58</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>30</v>
+      </c>
+      <c r="E282" t="n">
+        <v>5.326747805734123</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:58</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>30</v>
+      </c>
+      <c r="E283" t="n">
+        <v>5.403353644352125</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:58</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>30</v>
+      </c>
+      <c r="E284" t="n">
+        <v>5.172802390874662</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:58</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>20</v>
+      </c>
+      <c r="E285" t="n">
+        <v>5.401152790140427</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:58</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>20</v>
+      </c>
+      <c r="E286" t="n">
+        <v>5.467592929978188</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:10:58</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>30</v>
+      </c>
+      <c r="E287" t="n">
+        <v>5.474697923367764</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:11:14</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>40</v>
+      </c>
+      <c r="E288" t="n">
+        <v>5.428426457365942</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:11:14</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>setting6</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>40</v>
+      </c>
+      <c r="E289" t="n">
+        <v>5.442066440598762</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:11:16</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>setting7</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>40</v>
+      </c>
+      <c r="E290" t="n">
+        <v>5.359746753566184</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:11:16</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>setting8</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>40</v>
+      </c>
+      <c r="E291" t="n">
+        <v>5.088884102083386</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
